--- a/Daily record/weekPlan.xlsx
+++ b/Daily record/weekPlan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,31 +34,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1周计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2周计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3周计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4周计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频1小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一周必须完成7个小时的视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1周计划表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,14 +90,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -145,7 +121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,13 +131,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -462,27 +435,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="80.099999999999994" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="1"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -496,429 +470,86 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1">
+    <row r="3" spans="1:5" ht="80.099999999999994" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1">
+    <row r="4" spans="1:5" ht="80.099999999999994" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1">
+    <row r="5" spans="1:5" ht="80.099999999999994" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1">
+    <row r="6" spans="1:5" ht="80.099999999999994" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1">
+    <row r="7" spans="1:5" ht="80.099999999999994" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1">
+    <row r="8" spans="1:5" ht="80.099999999999994" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1">
+    <row r="9" spans="1:5" ht="80.099999999999994" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1">
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="80.099999999999994" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A20" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A21" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A22" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A23" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A35" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A36" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A37" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A38" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A41" s="4"/>
+    <row r="22" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="41" spans="2:5" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A47" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A48" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A49" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A50" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A51" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A52" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="61" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="70" spans="1:5" ht="24.95" customHeight="1">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="89" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="A11:E14"/>
-    <mergeCell ref="A30:E30"/>
+  <mergeCells count="6">
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A23:E23"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A25:E29"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="A54:E58"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A40:E43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
